--- a/biology/Médecine/Syndrome_de_Brown-Séquard/Syndrome_de_Brown-Séquard.xlsx
+++ b/biology/Médecine/Syndrome_de_Brown-Séquard/Syndrome_de_Brown-Séquard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_de_Brown-S%C3%A9quard</t>
+          <t>Syndrome_de_Brown-Séquard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Brown-Séquard est un syndrome neurologique consécutif à une atteinte de l'hemi-moelle[1]. Il se traduit par :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Brown-Séquard est un syndrome neurologique consécutif à une atteinte de l'hemi-moelle. Il se traduit par :
 du côté homolatéral à la lésion : un syndrome cordonal postérieur, responsable d'atteintes du tact précis et discriminatoire, et un syndrome pyramidal, responsable d'atteintes motrices.
 du côté controlatéral à la lésion : un syndrome spino-thalamique, responsable d'atteintes du tact grossier, douloureux et thermique, par atteintes des fibres qui croisent (faisceau spino-thalamique dorsal : sensibilité thermo-algésique).
 En d'autres termes, ce syndrome associe :
@@ -493,7 +505,7 @@
 une hyperesthésie controlatérale segmentaire à la lésion ;
 une hypoesthésie thermo-algésique (insensibilité tactile, douloureuse, et thermique) controlatérale sous la lésion.
 une diminution de la sensibilité au niveau des poignets et des doigts (lors d'une lésion à C7)
-Ce syndrome a été décrit en 1850 (et publié en 1851) par le neurologue Charles-Édouard Brown-Séquard[2].
+Ce syndrome a été décrit en 1850 (et publié en 1851) par le neurologue Charles-Édouard Brown-Séquard.
 L'hémi-section médullaire peut être provoquée par une syringomyélie, une tumeur ou une lésion traumatique.
 </t>
         </is>
